--- a/NPC汇总.xlsx
+++ b/NPC汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找到女朋友和老余的出轨证据（胸罩）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b哥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,11 +108,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小孩</t>
+    <t>理发师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱管闲事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将张辉 购买礼物卖掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骚、爱慕虚荣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,11 +215,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0">
   <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="序号" dataDxfId="1"/>
+    <tableColumn id="1" name="序号" dataDxfId="2"/>
     <tableColumn id="2" name="NPC名字"/>
     <tableColumn id="3" name="NPC职业"/>
     <tableColumn id="4" name="NPC性格"/>
-    <tableColumn id="8" name="还钱关卡" dataDxfId="2"/>
+    <tableColumn id="8" name="还钱关卡" dataDxfId="1"/>
     <tableColumn id="9" name="不还钱原因"/>
     <tableColumn id="6" name="欠款数" dataDxfId="0"/>
     <tableColumn id="7" name="还钱途径"/>
@@ -503,7 +519,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -571,7 +587,7 @@
         <v>200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -579,25 +595,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -605,10 +621,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
@@ -618,7 +637,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
@@ -628,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
@@ -638,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
@@ -650,6 +672,9 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -658,7 +683,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
